--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3438.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3438.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.277502114818341</v>
+        <v>1.389662504196167</v>
       </c>
       <c r="B1">
-        <v>2.88997121521636</v>
+        <v>2.901319980621338</v>
       </c>
       <c r="C1">
-        <v>3.762006319879244</v>
+        <v>5.153129577636719</v>
       </c>
       <c r="D1">
-        <v>3.936008097601504</v>
+        <v>1.930641174316406</v>
       </c>
       <c r="E1">
-        <v>1.157742013165662</v>
+        <v>1.205399036407471</v>
       </c>
     </row>
   </sheetData>
